--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1300,14 +1300,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1371,13 +1367,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1444,10 +1439,15 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -3241,13 +3241,12 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Red Camry, available</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3289,10 +3288,14 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3325,21 +3328,9 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1499,10 +1499,15 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1572,15 +1577,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1651,10 +1651,15 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1706,13 +1711,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1784,13 +1789,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1867,7 +1871,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1944,7 +1948,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2008,7 +2012,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2070,21 +2074,9 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2177,7 +2169,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2214,7 +2210,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2265,7 +2261,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2316,7 +2312,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2367,7 +2363,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2416,11 +2412,7 @@
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
@@ -2479,9 +2471,21 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2537,17 +2541,17 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2605,17 +2609,17 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2661,12 +2665,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2720,12 +2724,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2783,12 +2787,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2846,12 +2850,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2910,12 +2914,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2957,12 +2961,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3016,12 +3020,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3079,12 +3083,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3124,21 +3128,9 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3231,7 +3223,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
@@ -3276,7 +3272,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3323,7 +3319,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3362,7 +3358,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3397,7 +3393,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3444,7 +3440,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3485,11 +3481,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3527,9 +3519,21 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3568,19 +3572,15 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3619,12 +3619,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3662,12 +3662,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3722,12 +3722,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3780,16 +3780,8 @@
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3818,7 +3810,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3853,10 +3845,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3868,45 +3864,6 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -1695,10 +1695,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1767,14 +1773,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+Gray Van,
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1845,14 +1851,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van,
-Rx</t>
+Gray Van</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1923,13 +1928,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1987,13 +1992,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Leyna</t>
+Trainer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2056,13 +2061,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2144,21 +2148,9 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -2239,7 +2231,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
@@ -2292,7 +2288,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2343,7 +2339,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE, MERRILL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2390,7 +2386,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE, MERRILL</t>
+          <t>301 E SECOND ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2449,7 +2445,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>301 E SECOND ST</t>
+          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2517,7 +2513,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2598,7 +2594,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2654,7 +2650,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2709,7 +2705,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
+          <t>310 E BRIDGE ST</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2772,7 +2768,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>310 E BRIDGE ST</t>
+          <t>https://goo.gl/maps/NH7BM39kiD72</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2835,7 +2831,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NH7BM39kiD72</t>
+          <t>6:15 am meet for Sarah &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2897,11 +2893,7 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>6:15 am meet for Sarah &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2947,9 +2939,21 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2996,17 +3000,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Driver 1/2, Equip</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3057,21 +3061,9 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Driver 1/2  </t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +674,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -721,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -768,7 +768,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MARIANO'S #535 +RX, ORLAND PARK</t>
+          <t>YOUNG'S DRUG STORE, MERRILL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -815,7 +815,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9504 142ND ST</t>
+          <t>301 E SECOND ST</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -862,7 +862,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/x3S76RraqQ82</t>
+          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -952,7 +952,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 OR 2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1005,7 +1005,11 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1043,22 +1047,13 @@
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>310 E BRIDGE ST</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1120,14 +1115,10 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>https://goo.gl/maps/NH7BM39kiD72</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1184,14 +1175,10 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>6:15 am meet for Sarah &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1252,22 +1239,9 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1322,17 +1296,17 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1393,15 +1367,19 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Driver 1/2  </t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1410,15 +1388,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1466,15 +1439,19 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1483,14 +1460,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1542,16 +1515,8 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
@@ -1561,12 +1526,13 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1615,16 +1581,8 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -1634,13 +1592,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1688,27 +1645,30 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>10)</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1766,23 +1726,13 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1844,29 +1794,16 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>THIS IS HARRY'S BROTHER- IN-LAW (RAJA)'S STORE</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
@@ -1921,27 +1858,18 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Leyna</t>
-        </is>
-      </c>
+          <t>HARRY'S GBS CORP (MOBIL), SOUTH BELOIT</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1985,27 +1913,18 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>810 BLACKHAWK BLVD</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2054,26 +1973,18 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/DoCyfQNVq7GAaomeA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>500 S OAKWOOD RD</t>
+          <t>ASCENSION MERCY INPATIENT HOSPITAL, OSHKOSH</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2101,26 +2012,18 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>*Courtesy meet at 6:15 am</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WSUq89zmyur</t>
+          <t>500 S OAKWOOD RD</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2155,7 +2058,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/WSUq89zmyur</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2191,12 +2094,28 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2230,29 +2149,21 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2286,24 +2197,24 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -2337,21 +2248,17 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>YOUNG'S DRUG STORE, MERRILL</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2386,26 +2293,22 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>301 E SECOND ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2445,25 +2348,24 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T2NHR2gMxeP2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2513,19 +2415,19 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2594,14 +2496,27 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>810 E GREEN BAY AVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2650,7 +2565,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>YOUNG'S DRUG STORE-BRIDGE ST, WAUSAU</t>
+          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2705,17 +2620,13 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>310 E BRIDGE ST</t>
+          <t>*IL Meet is ?? am at IL Office</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
@@ -2766,17 +2677,13 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/NH7BM39kiD72</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2828,18 +2735,26 @@
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6:15 am meet for Sarah &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>THIS IS HARRY'S BROTHER- IN-LAW (RAJA)'S STORE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2892,14 +2807,27 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>HARRY'S GBS CORP (MOBIL), SOUTH BELOIT</t>
+          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2941,24 +2869,25 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Driver 1/2, Equip</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>810 BLACKHAWK BLVD</t>
+          <t>1111 S WEST ST</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3000,24 +2929,24 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/DoCyfQNVq7GAaomeA</t>
+          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3061,14 +2990,26 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>*Courtesy meet at 6:15 am</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3112,12 +3053,28 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3143,25 +3100,26 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3198,21 +3156,37 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3253,13 +3227,39 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3300,12 +3300,32 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3335,17 +3355,37 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
@@ -3375,11 +3415,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3422,11 +3458,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>KELLEY #15, WEST ST MOBIL (NORTH), FREEPORT</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3461,15 +3493,15 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>1111 S WEST ST</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3500,15 +3532,15 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
@@ -3551,15 +3583,15 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3598,15 +3630,15 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>800 EAST MAES AVE</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -3645,7 +3677,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3696,21 +3732,9 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -3751,26 +3775,25 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3791,20 +3814,20 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3826,25 +3849,25 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3856,6 +3879,435 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -2620,7 +2620,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>*IL Meet is ?? am at IL Office</t>
+          <t>*IL Meet is 4:00 am at IL Office</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -792,7 +792,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>MARIANO'S #537 +RX, NAPERVILLE</t>
+          <t>MARIANO'S #537, NAPERVILLE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1021,7 +1021,11 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NO RX COUNT FOR THIS INVENTORY</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1087,22 +1091,9 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1154,15 +1145,20 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1214,12 +1210,12 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1269,12 +1265,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1336,19 +1332,15 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1407,20 +1399,15 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1484,19 +1471,18 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+Silver Van</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1550,19 +1536,18 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Trainer</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1620,17 +1605,19 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1689,12 +1676,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1756,12 +1743,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1824,18 +1811,17 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Qiana</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1890,9 +1876,22 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Qiana</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1994,11 +1993,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2035,7 +2030,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2074,7 +2069,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>WAGNER SHELL, NEW LISBON</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2129,7 +2124,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1703 E BRIDGE ST</t>
+          <t>WAGNER SHELL, NEW LISBON</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2176,7 +2171,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/3LToSVVwxLPwmCkn6</t>
+          <t>1703 E BRIDGE ST</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2227,7 +2222,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Sarah, *Bri* &amp; Lori meet at WI Dells Walmart at 6:30 am</t>
+          <t>https://maps.app.goo.gl/3LToSVVwxLPwmCkn6</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2272,7 +2267,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Sarah, *Bri* &amp; Lori meet at WI Dells Walmart at 6:30 am</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2314,21 +2313,9 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2387,17 +2374,17 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2455,12 +2442,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -2534,9 +2521,21 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2646,11 +2645,7 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2707,7 +2702,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2778,7 +2773,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2851,7 +2846,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2911,7 +2906,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2970,7 +2965,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3033,7 +3028,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3082,7 +3077,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3125,21 +3124,9 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3198,17 +3185,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Red Camry, available</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3271,17 +3258,17 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Red Camry, available</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3336,9 +3323,21 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -2368,7 +2368,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Equip, c-store after</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, c-store after</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -3178,7 +3178,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>APPROX 11:30 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3251,7 +3251,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>TO FOLLOW PIG MAYVILLE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3389,7 +3389,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>CONTACT IS THE BUYER BASU</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3420,7 +3420,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3463,7 +3463,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>700 N. SPRING ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3504,7 +3504,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/DwVBnU9CPQKJwMky7</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3542,21 +3546,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3595,15 +3587,19 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip, after Pig</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3642,15 +3638,19 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store, after Pig  </t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3687,16 +3687,8 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3735,16 +3727,8 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3795,7 +3779,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3830,7 +3818,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3869,7 +3861,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3908,7 +3904,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>9915 ORLANDO ST</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3947,7 +3947,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3986,7 +3990,11 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4063,9 +4071,21 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4102,8 +4122,16 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -4141,8 +4169,16 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4180,8 +4216,16 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4219,8 +4263,16 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -3463,7 +3463,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>700 N. SPRING ST</t>
+          <t>700 N SPRING ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -2580,7 +2580,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3009,21 +3009,9 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
@@ -3121,7 +3109,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>APPROX 11:30 AM START</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3178,7 +3170,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>APPROX 11:30 AM START</t>
+          <t>TO FOLLOW PIG MAYVILLE</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3251,7 +3243,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>TO FOLLOW PIG MAYVILLE</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3318,7 +3310,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>CONTACT IS THE BUYER BASU</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3389,7 +3381,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>CONTACT IS THE BUYER BASU</t>
+          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3420,7 +3412,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
+          <t>700 N SPRING ST</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3463,7 +3455,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>700 N SPRING ST</t>
+          <t>https://maps.app.goo.gl/DwVBnU9CPQKJwMky7</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3504,11 +3496,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/DwVBnU9CPQKJwMky7</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3546,9 +3534,21 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip, after Pig</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3587,17 +3587,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store, Equip, after Pig</t>
+          <t xml:space="preserve">@ Store, after Pig  </t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3636,21 +3636,9 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store, after Pig  </t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3728,7 +3716,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3781,7 +3773,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3820,7 +3812,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3863,7 +3855,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3906,7 +3898,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3949,7 +3941,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3990,11 +3982,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4032,9 +4020,21 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4073,19 +4073,15 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4124,12 +4120,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4171,12 +4167,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4218,12 +4214,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4263,16 +4259,8 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -2431,12 +2431,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store, c-store after</t>
+          <t>@ Store, Until 10:45</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2512,12 +2512,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, c-store after</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3009,9 +3009,21 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
@@ -3109,11 +3121,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>APPROX 11:30 AM START</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3170,7 +3178,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>TO FOLLOW PIG MAYVILLE</t>
+          <t>APPROX 11:30 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3243,7 +3251,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>TO FOLLOW PIG MAYVILLE</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3310,7 +3318,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>CONTACT IS THE BUYER BASU</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3381,7 +3389,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
+          <t>CONTACT IS THE BUYER BASU</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3412,7 +3420,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>700 N SPRING ST</t>
+          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3455,7 +3463,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/DwVBnU9CPQKJwMky7</t>
+          <t>700 N SPRING ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3496,7 +3504,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/DwVBnU9CPQKJwMky7</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3534,21 +3546,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip, after Pig</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3587,17 +3587,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store, after Pig  </t>
+          <t>@ Store, Equip, after Pig</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3636,9 +3636,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store, after Pig  </t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3716,11 +3728,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3773,7 +3781,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3812,7 +3820,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3855,7 +3863,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>9915 ORLANDO ST</t>
+          <t>KELLEY #18, ORLANDO MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3898,7 +3906,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dpHfbt86exo</t>
+          <t>9915 ORLANDO ST</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3941,7 +3949,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/dpHfbt86exo</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3982,7 +3990,11 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4020,21 +4032,9 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4073,15 +4073,19 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4120,12 +4124,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4167,12 +4171,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4214,12 +4218,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4259,8 +4263,16 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Madison Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Madison Schedule.xlsx
@@ -1847,7 +1847,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>HARRY'S GBS CORP (MOBIL), SOUTH BELOIT</t>
+          <t>HARRY'S GSB CORP (MOBIL), SOUTH BELOIT</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
